--- a/translate/语言包.xlsx
+++ b/translate/语言包.xlsx
@@ -418,7 +418,7 @@
         <v>Account</v>
       </c>
       <c r="C3" t="str">
-        <v>Account</v>
+        <v>账户</v>
       </c>
       <c r="D3" t="str">
         <v>Cuenta</v>
@@ -432,7 +432,7 @@
         <v>Apply amount</v>
       </c>
       <c r="C4" t="str">
-        <v>Apply amount</v>
+        <v>申请金额</v>
       </c>
       <c r="D4" t="str">
         <v>Aplicar cantidad</v>
@@ -502,7 +502,7 @@
         <v>Available balance</v>
       </c>
       <c r="C9" t="str">
-        <v>Available balance</v>
+        <v>可贷金额</v>
       </c>
       <c r="D9" t="str">
         <v>Saldo disponible</v>
@@ -530,7 +530,7 @@
         <v>Collection bank card</v>
       </c>
       <c r="C11" t="str">
-        <v>Collection bank card</v>
+        <v>您的银行卡号</v>
       </c>
       <c r="D11" t="str">
         <v>Cobro de tarjeta bancaria</v>
@@ -558,7 +558,7 @@
         <v>Close</v>
       </c>
       <c r="C13" t="str">
-        <v>Close</v>
+        <v>关闭</v>
       </c>
       <c r="D13" t="str">
         <v>Cerrar</v>
@@ -572,7 +572,7 @@
         <v>Confirm</v>
       </c>
       <c r="C14" t="str">
-        <v>Confirm</v>
+        <v>确认</v>
       </c>
       <c r="D14" t="str">
         <v>Confirmar</v>
@@ -586,7 +586,7 @@
         <v>copy</v>
       </c>
       <c r="C15" t="str">
-        <v>copy</v>
+        <v>复制</v>
       </c>
       <c r="D15" t="str">
         <v>Copiar</v>
@@ -600,7 +600,7 @@
         <v>days</v>
       </c>
       <c r="C16" t="str">
-        <v>days</v>
+        <v>天数</v>
       </c>
       <c r="D16" t="str">
         <v>Días</v>
@@ -614,7 +614,7 @@
         <v>Fee</v>
       </c>
       <c r="C17" t="str">
-        <v>Fee</v>
+        <v>费用</v>
       </c>
       <c r="D17" t="str">
         <v>Tarifa</v>
@@ -642,7 +642,7 @@
         <v>Free</v>
       </c>
       <c r="C19" t="str">
-        <v>free</v>
+        <v>免费</v>
       </c>
       <c r="D19" t="str">
         <v>Gratis</v>
@@ -894,7 +894,7 @@
         <v>Repayment amount</v>
       </c>
       <c r="C37" t="str">
-        <v>Repayment amount</v>
+        <v>还款金额</v>
       </c>
       <c r="D37" t="str">
         <v>Monto de reembolso</v>
@@ -978,7 +978,7 @@
         <v>About Moneyya</v>
       </c>
       <c r="C43" t="str">
-        <v>About Moneyya</v>
+        <v>关于Moneyya</v>
       </c>
       <c r="D43" t="str">
         <v>Acerca de nosotros acerca de Moneyya</v>
@@ -1006,7 +1006,7 @@
         <v>Contact Us</v>
       </c>
       <c r="C45" t="str">
-        <v>Contact Us</v>
+        <v>联系我们</v>
       </c>
       <c r="D45" t="str">
         <v>Título de pantalla/Contáctenos</v>
@@ -1020,7 +1020,7 @@
         <v>Face Recognition</v>
       </c>
       <c r="C46" t="str">
-        <v>Face Recognition</v>
+        <v>面部识别</v>
       </c>
       <c r="D46" t="str">
         <v>Face Recognition;Título de pantalla/Reconocimiento facial</v>
@@ -1034,7 +1034,7 @@
         <v>History Bills</v>
       </c>
       <c r="C47" t="str">
-        <v>History Bills</v>
+        <v>历史订单</v>
       </c>
       <c r="D47" t="str">
         <v>Título de pantalla/Facturas históricas</v>
@@ -1048,7 +1048,7 @@
         <v>Hold ID Photo</v>
       </c>
       <c r="C48" t="str">
-        <v>Hold ID Photo</v>
+        <v>手持身份ID</v>
       </c>
       <c r="D48" t="str">
         <v>Título de pantalla/Foto de la identificación</v>
@@ -1062,7 +1062,7 @@
         <v>Loan</v>
       </c>
       <c r="C49" t="str">
-        <v>Loan</v>
+        <v>签约</v>
       </c>
       <c r="D49" t="str">
         <v>Título de pantalla/Préstamo</v>
@@ -1090,7 +1090,7 @@
         <v>My Card</v>
       </c>
       <c r="C51" t="str">
-        <v>My Card</v>
+        <v>我的银行卡</v>
       </c>
       <c r="D51" t="str">
         <v>Título de pantalla/Mi tarjeta</v>
@@ -1104,7 +1104,7 @@
         <v>Payment</v>
       </c>
       <c r="C52" t="str">
-        <v>Payment</v>
+        <v>还款</v>
       </c>
       <c r="D52" t="str">
         <v>Título de pantalla/ Pago</v>
@@ -1132,7 +1132,7 @@
         <v>Second repayment amount</v>
       </c>
       <c r="C54" t="str">
-        <v>Second repayment amount</v>
+        <v>第二期应还金额</v>
       </c>
       <c r="D54" t="str">
         <v>Monto de reembolso del segundo pago</v>
@@ -1146,7 +1146,7 @@
         <v>Second repayment date</v>
       </c>
       <c r="C55" t="str">
-        <v>Second repayment date</v>
+        <v>第二期应还日期</v>
       </c>
       <c r="D55" t="str">
         <v>Monto de reembolso del segundo pago y fecha</v>
@@ -1272,7 +1272,7 @@
         <v>social phone invalid</v>
       </c>
       <c r="C2" t="str">
-        <v>social phone invalid</v>
+        <v>社交账户手机号格式不正确</v>
       </c>
       <c r="D2" t="str">
         <v>Teléfono social inválido</v>
@@ -1286,7 +1286,7 @@
         <v>scoical account</v>
       </c>
       <c r="C3" t="str">
-        <v>scoical account</v>
+        <v>社交账户手机号</v>
       </c>
       <c r="D3" t="str">
         <v>Cuenta social</v>
@@ -1300,7 +1300,7 @@
         <v xml:space="preserve">social phone </v>
       </c>
       <c r="C4" t="str">
-        <v xml:space="preserve">social phone </v>
+        <v>请填写社交账户手机号[输入占位符]</v>
       </c>
       <c r="D4" t="str">
         <v>Marcador de posición/Teléfono social</v>
@@ -1314,7 +1314,7 @@
         <v>social phone required</v>
       </c>
       <c r="C5" t="str">
-        <v>social phone required</v>
+        <v>请填写社交账户手机号</v>
       </c>
       <c r="D5" t="str">
         <v>Teléfono social requerido</v>
@@ -1328,7 +1328,7 @@
         <v>backup Phone invalid</v>
       </c>
       <c r="C6" t="str">
-        <v>backup Phone invalid</v>
+        <v>备用手机号格式不正确</v>
       </c>
       <c r="D6" t="str">
         <v>Teléfono de respaldo no válido</v>
@@ -1342,7 +1342,7 @@
         <v>backup phone</v>
       </c>
       <c r="C7" t="str">
-        <v>backup phone</v>
+        <v>备用手机号</v>
       </c>
       <c r="D7" t="str">
         <v>Teléfono de respaldo</v>
@@ -1356,7 +1356,7 @@
         <v>backup phone</v>
       </c>
       <c r="C8" t="str">
-        <v>backup phone</v>
+        <v>请填写备用手机号</v>
       </c>
       <c r="D8" t="str">
         <v>teléfono de respaldo</v>
@@ -1370,7 +1370,7 @@
         <v>backup phone required</v>
       </c>
       <c r="C9" t="str">
-        <v>backup phone required</v>
+        <v>备用手机号必需</v>
       </c>
       <c r="D9" t="str">
         <v>Teléfono de respaldo requerido</v>
@@ -1384,7 +1384,7 @@
         <v>bank Card No invalid</v>
       </c>
       <c r="C10" t="str">
-        <v>bank Card No invalid</v>
+        <v>银行卡卡号格式不正确</v>
       </c>
       <c r="D10" t="str">
         <v>Tarjeta bancaria inválida</v>
@@ -1398,7 +1398,7 @@
         <v>bank Card No</v>
       </c>
       <c r="C11" t="str">
-        <v>bank Card No</v>
+        <v>银行卡卡号</v>
       </c>
       <c r="D11" t="str">
         <v>Número de tarjeta bancaria</v>
@@ -1412,7 +1412,7 @@
         <v>bank Card No</v>
       </c>
       <c r="C12" t="str">
-        <v>bank Card No</v>
+        <v>请填写银行卡卡号</v>
       </c>
       <c r="D12" t="str">
         <v>Número de tarjeta bancaria</v>
@@ -1426,7 +1426,7 @@
         <v>bank Card No required</v>
       </c>
       <c r="C13" t="str">
-        <v>bank Card No required</v>
+        <v>银行卡卡号必需</v>
       </c>
       <c r="D13" t="str">
         <v>Número de tarjeta bancaria requerida</v>
@@ -1440,7 +1440,7 @@
         <v>bank code</v>
       </c>
       <c r="C14" t="str">
-        <v>bank code</v>
+        <v>所属银行</v>
       </c>
       <c r="D14" t="str">
         <v>Código bancario</v>
@@ -1454,7 +1454,7 @@
         <v>bank code</v>
       </c>
       <c r="C15" t="str">
-        <v>bank code</v>
+        <v>请选择所属银行</v>
       </c>
       <c r="D15" t="str">
         <v>Código bancario</v>
@@ -1468,7 +1468,7 @@
         <v>back code required</v>
       </c>
       <c r="C16" t="str">
-        <v>back code required</v>
+        <v>所属银行必需</v>
       </c>
       <c r="D16" t="str">
         <v>Código bancario requerido</v>
@@ -1482,7 +1482,7 @@
         <v>birth</v>
       </c>
       <c r="C17" t="str">
-        <v>birth</v>
+        <v>生日</v>
       </c>
       <c r="D17" t="str">
         <v>Etiqueta de nacimiento</v>
@@ -1496,7 +1496,7 @@
         <v>birth</v>
       </c>
       <c r="C18" t="str">
-        <v>birth</v>
+        <v>请选择生日</v>
       </c>
       <c r="D18" t="str">
         <v>Lugar de nacimiento</v>
@@ -1510,7 +1510,7 @@
         <v>birth required</v>
       </c>
       <c r="C19" t="str">
-        <v>birth required</v>
+        <v>生日必需</v>
       </c>
       <c r="D19" t="str">
         <v>Nacimiento requerido</v>
@@ -1524,7 +1524,7 @@
         <v>bank card type</v>
       </c>
       <c r="C20" t="str">
-        <v>bank card type</v>
+        <v>银行卡类型</v>
       </c>
       <c r="D20" t="str">
         <v>Número de tarjeta bancaria requerida/Tipo de tarjeta</v>
@@ -1538,7 +1538,7 @@
         <v>cardno type</v>
       </c>
       <c r="C21" t="str">
-        <v>cardno type</v>
+        <v>请选择银行卡类型</v>
       </c>
       <c r="D21" t="str">
         <v>Número de tarjeta bancaria requerida/Tipo de tarjeta</v>
@@ -1552,7 +1552,7 @@
         <v>card No Type required</v>
       </c>
       <c r="C22" t="str">
-        <v>card No Type required</v>
+        <v>银行卡类型必需</v>
       </c>
       <c r="D22" t="str">
         <v>Número de tarjeta bancaria requerida/Tipo de tarjeta</v>
@@ -1566,7 +1566,7 @@
         <v>confirmPassword invalid</v>
       </c>
       <c r="C23" t="str">
-        <v>confirmPassword invalid</v>
+        <v>再次输入密码格式不正确</v>
       </c>
       <c r="D23" t="str">
         <v>Confirme la contrase?a. inválido</v>
@@ -1580,7 +1580,7 @@
         <v>confirmPassword</v>
       </c>
       <c r="C24" t="str">
-        <v>confirmPassword</v>
+        <v>再次输入密码</v>
       </c>
       <c r="D24" t="str">
         <v>Confirme la contrase?a</v>
@@ -1594,7 +1594,7 @@
         <v>confirmPassword not same with password</v>
       </c>
       <c r="C25" t="str">
-        <v>confirmPassword not same with password</v>
+        <v>再次输入密码与密码不一致</v>
       </c>
       <c r="D25" t="str">
         <v>Confirme que es diferente a la contrase?a</v>
@@ -1608,7 +1608,7 @@
         <v>confirmPassword</v>
       </c>
       <c r="C26" t="str">
-        <v>confirmPassword</v>
+        <v>请再次输入密码</v>
       </c>
       <c r="D26" t="str">
         <v>Confirme la contrase?a</v>
@@ -1622,7 +1622,7 @@
         <v>confirmPassword required</v>
       </c>
       <c r="C27" t="str">
-        <v>confirmPassword required</v>
+        <v>再次输入密码必需</v>
       </c>
       <c r="D27" t="str">
         <v>Es necesario confirmar la contrase?a</v>
@@ -1636,7 +1636,7 @@
         <v>company name invalid</v>
       </c>
       <c r="C28" t="str">
-        <v>公司名称无效</v>
+        <v>公司名称格式不正确</v>
       </c>
       <c r="D28" t="str">
         <v>Nombre de la compa?ía inválido</v>
@@ -1678,7 +1678,7 @@
         <v>company name required</v>
       </c>
       <c r="C31" t="str">
-        <v>必需</v>
+        <v>公司名称必需</v>
       </c>
       <c r="D31" t="str">
         <v>Nombre de la empresa requerido</v>
@@ -1692,7 +1692,7 @@
         <v>company  city</v>
       </c>
       <c r="C32" t="str">
-        <v>城市</v>
+        <v>公司所在城市</v>
       </c>
       <c r="D32" t="str">
         <v>Códico de ciudad de la compa?ía requerido</v>
@@ -1706,7 +1706,7 @@
         <v>company city</v>
       </c>
       <c r="C33" t="str">
-        <v>城市</v>
+        <v>请选择公司所在城市</v>
       </c>
       <c r="D33" t="str">
         <v>Código de ciudad de la compa?ía</v>
@@ -1720,7 +1720,7 @@
         <v>company city required</v>
       </c>
       <c r="C34" t="str">
-        <v>城市必须</v>
+        <v>公司所在城市必需</v>
       </c>
       <c r="D34" t="str">
         <v>Código de ciudad de la compa?ía</v>
@@ -1734,7 +1734,7 @@
         <v>company detail address invalid</v>
       </c>
       <c r="C35" t="str">
-        <v>公司地址无效</v>
+        <v>公司详细地址无效</v>
       </c>
       <c r="D35" t="str">
         <v>Detalles de la dirección de la empresa inválidos</v>
@@ -1776,7 +1776,7 @@
         <v>company detail address required</v>
       </c>
       <c r="C38" t="str">
-        <v>必需</v>
+        <v>公司详细地址必需</v>
       </c>
       <c r="D38" t="str">
         <v>Dirección detallada de la empresa requerida</v>
@@ -1818,7 +1818,7 @@
         <v>company state required</v>
       </c>
       <c r="C41" t="str">
-        <v>所在省份必须</v>
+        <v>公司所在省份必需</v>
       </c>
       <c r="D41" t="str">
         <v>Código de Provincia de la empresa requerido</v>
@@ -1832,7 +1832,7 @@
         <v>公司电话格式不正确</v>
       </c>
       <c r="C42" t="str">
-        <v>公司电话格式不正确</v>
+        <v>公司联系电话格式不正确</v>
       </c>
       <c r="D42" t="str">
         <v>Formato del teléfono de la empresa incorrecto</v>
@@ -1846,7 +1846,7 @@
         <v>company Phone</v>
       </c>
       <c r="C43" t="str">
-        <v>公司电话</v>
+        <v>公司联系电话</v>
       </c>
       <c r="D43" t="str">
         <v>Teléfono de la compa?ía</v>
@@ -1860,7 +1860,7 @@
         <v>company phone</v>
       </c>
       <c r="C44" t="str">
-        <v>请输入公司电话</v>
+        <v>请输入公司联系电话</v>
       </c>
       <c r="D44" t="str">
         <v>Teléfono de la compa?ía</v>
@@ -1874,7 +1874,7 @@
         <v>company Phone required</v>
       </c>
       <c r="C45" t="str">
-        <v>公司电话必须</v>
+        <v>公司联系电话必需</v>
       </c>
       <c r="D45" t="str">
         <v>Teléfono de la empresa requerido</v>
@@ -1888,7 +1888,7 @@
         <v>contact name invalid</v>
       </c>
       <c r="C46" t="str">
-        <v>亲属联系人姓名无效</v>
+        <v>亲属联系人姓名格式不正确</v>
       </c>
       <c r="D46" t="str">
         <v>Nombre de contacto no válido</v>
@@ -1958,7 +1958,7 @@
         <v>contactPhone</v>
       </c>
       <c r="C51" t="str">
-        <v>亲属联系人电话</v>
+        <v>联系人电话</v>
       </c>
       <c r="D51" t="str">
         <v>Nombre de contacto de pariente requerido</v>
@@ -1972,7 +1972,7 @@
         <v>contact phone</v>
       </c>
       <c r="C52" t="str">
-        <v>请选择亲属联系人电话</v>
+        <v>请选择联系人电话</v>
       </c>
       <c r="D52" t="str">
         <v>Nombre de contacto de pariente requerido</v>
@@ -1986,7 +1986,7 @@
         <v>contact phone required</v>
       </c>
       <c r="C53" t="str">
-        <v>亲属联系人电话必须</v>
+        <v>联系人电话必须</v>
       </c>
       <c r="D53" t="str">
         <v>Nombre de contacto de pariente requerido</v>
@@ -2000,7 +2000,7 @@
         <v>contactRelation</v>
       </c>
       <c r="C54" t="str">
-        <v>亲属联系人关系</v>
+        <v>联系人关系</v>
       </c>
       <c r="D54" t="str">
         <v>Tipo de parentesco</v>
@@ -2014,7 +2014,7 @@
         <v>contact relation</v>
       </c>
       <c r="C55" t="str">
-        <v>请选择亲属联系人关系</v>
+        <v>请选择联系人关系</v>
       </c>
       <c r="D55" t="str">
         <v>Tipo de parentesco</v>
@@ -2028,7 +2028,7 @@
         <v>contact relation required</v>
       </c>
       <c r="C56" t="str">
-        <v>亲属联系人关系必需</v>
+        <v>联系人关系必需</v>
       </c>
       <c r="D56" t="str">
         <v>Tipo de parentesco requerido</v>
@@ -2042,7 +2042,7 @@
         <v>docType</v>
       </c>
       <c r="C57" t="str">
-        <v>docType</v>
+        <v>身份证类型</v>
       </c>
       <c r="D57" t="str">
         <v>Tipo de documento</v>
@@ -2056,7 +2056,7 @@
         <v>docType</v>
       </c>
       <c r="C58" t="str">
-        <v>docType</v>
+        <v>请选择身份证类型</v>
       </c>
       <c r="D58" t="str">
         <v>Tipo de documento</v>
@@ -2070,7 +2070,7 @@
         <v>doctype required</v>
       </c>
       <c r="C59" t="str">
-        <v>doctype required</v>
+        <v>身份证类型必需</v>
       </c>
       <c r="D59" t="str">
         <v>Tipo de documento</v>
@@ -2084,7 +2084,7 @@
         <v>education</v>
       </c>
       <c r="C60" t="str">
-        <v>education</v>
+        <v>教育程度</v>
       </c>
       <c r="D60" t="str">
         <v>Nivel educativo</v>
@@ -2098,7 +2098,7 @@
         <v>education</v>
       </c>
       <c r="C61" t="str">
-        <v>education</v>
+        <v>请选择教育程度</v>
       </c>
       <c r="D61" t="str">
         <v>Etiqueta de nivel educativo</v>
@@ -2112,7 +2112,7 @@
         <v>education required</v>
       </c>
       <c r="C62" t="str">
-        <v>education required</v>
+        <v>教育程度必需</v>
       </c>
       <c r="D62" t="str">
         <v>Nivel educativo requerido</v>
@@ -2126,7 +2126,7 @@
         <v>email invalid</v>
       </c>
       <c r="C63" t="str">
-        <v>email invalid</v>
+        <v>邮箱格式不正确</v>
       </c>
       <c r="D63" t="str">
         <v>Correo electrónico inválido</v>
@@ -2140,7 +2140,7 @@
         <v>email</v>
       </c>
       <c r="C64" t="str">
-        <v>email</v>
+        <v>邮箱</v>
       </c>
       <c r="D64" t="str">
         <v>Etiqueta de correo electrónico</v>
@@ -2154,7 +2154,7 @@
         <v>email</v>
       </c>
       <c r="C65" t="str">
-        <v>email</v>
+        <v>请填写邮箱</v>
       </c>
       <c r="D65" t="str">
         <v>Etiqueta de correo electrónico</v>
@@ -2168,7 +2168,7 @@
         <v>email required</v>
       </c>
       <c r="C66" t="str">
-        <v>email required</v>
+        <v>邮箱必需</v>
       </c>
       <c r="D66" t="str">
         <v>Correo electrónico requerido</v>
@@ -2238,7 +2238,7 @@
         <v>gender</v>
       </c>
       <c r="C71" t="str">
-        <v>gender</v>
+        <v>性别</v>
       </c>
       <c r="D71" t="str">
         <v>Etiqueta género</v>
@@ -2252,7 +2252,7 @@
         <v>gender required</v>
       </c>
       <c r="C72" t="str">
-        <v>gender required</v>
+        <v>性别必需</v>
       </c>
       <c r="D72" t="str">
         <v>Genero del aplicante requerido</v>
@@ -2280,7 +2280,7 @@
         <v>home Addr City</v>
       </c>
       <c r="C74" t="str">
-        <v>home Addr City</v>
+        <v>家庭地址所在城市</v>
       </c>
       <c r="D74" t="str">
         <v>Código postal</v>
@@ -2294,7 +2294,7 @@
         <v>home Addr City</v>
       </c>
       <c r="C75" t="str">
-        <v>home Addr City</v>
+        <v>请选择家庭地址所在城市</v>
       </c>
       <c r="D75" t="str">
         <v>Código postal</v>
@@ -2308,7 +2308,7 @@
         <v>home city required</v>
       </c>
       <c r="C76" t="str">
-        <v>home city required</v>
+        <v>家庭地址所在城市必需</v>
       </c>
       <c r="D76" t="str">
         <v>Código de</v>
@@ -2322,7 +2322,7 @@
         <v>home Addr Detail</v>
       </c>
       <c r="C77" t="str">
-        <v>home Addr Detail</v>
+        <v>家庭地址详细信息</v>
       </c>
       <c r="D77" t="str">
         <v>Dirección detallada de la casa requerida</v>
@@ -2336,7 +2336,7 @@
         <v>home Addr Detail</v>
       </c>
       <c r="C78" t="str">
-        <v>home Addr Detail</v>
+        <v>请填写家庭地址详细信息</v>
       </c>
       <c r="D78" t="str">
         <v>Dirección detallada de la casa requerida</v>
@@ -2350,7 +2350,7 @@
         <v>home detail required</v>
       </c>
       <c r="C79" t="str">
-        <v>home detail required</v>
+        <v>家庭地址详细信息必需</v>
       </c>
       <c r="D79" t="str">
         <v>Dirección detallada de la casa requerida</v>
@@ -2364,7 +2364,7 @@
         <v>homeAddrProvinceCode</v>
       </c>
       <c r="C80" t="str">
-        <v>homeAddrProvinceCode</v>
+        <v>家庭地址所在省份</v>
       </c>
       <c r="D80" t="str">
         <v>Código de ciudad de la casa requerido</v>
@@ -2378,7 +2378,7 @@
         <v>home Addr Province</v>
       </c>
       <c r="C81" t="str">
-        <v>home Addr Province</v>
+        <v>请填写家庭地址所在省份</v>
       </c>
       <c r="D81" t="str">
         <v>Etiqueta Código de Provincia y dirección domicilio</v>
@@ -2392,7 +2392,7 @@
         <v>home state required</v>
       </c>
       <c r="C82" t="str">
-        <v>home state required</v>
+        <v>家庭地址所在省份必需</v>
       </c>
       <c r="D82" t="str">
         <v>Código de ciudad de la casa requerido</v>
@@ -2406,7 +2406,7 @@
         <v>idcard invalid</v>
       </c>
       <c r="C83" t="str">
-        <v>idcard invalid</v>
+        <v>身份证账号格式不正确</v>
       </c>
       <c r="D83" t="str">
         <v>Tarjeta de identificación inválida</v>
@@ -2420,7 +2420,7 @@
         <v>idcard</v>
       </c>
       <c r="C84" t="str">
-        <v>idcard</v>
+        <v>身份证账号</v>
       </c>
       <c r="D84" t="str">
         <v>Etiqueta tarjeta de identificación</v>
@@ -2434,7 +2434,7 @@
         <v>idcard</v>
       </c>
       <c r="C85" t="str">
-        <v>idcard</v>
+        <v>请填写身份证账号</v>
       </c>
       <c r="D85" t="str">
         <v>Etiqueta tarjeta de identificación</v>
@@ -2448,7 +2448,7 @@
         <v>idcard required</v>
       </c>
       <c r="C86" t="str">
-        <v>idcard required</v>
+        <v>身份证账号必需</v>
       </c>
       <c r="D86" t="str">
         <v>Tarjeta de identificación requerida</v>
@@ -2462,7 +2462,7 @@
         <v>idcard1 required</v>
       </c>
       <c r="C87" t="str">
-        <v>idcard1 required</v>
+        <v>身份证正面照必需</v>
       </c>
       <c r="D87" t="str">
         <v>Tarjeta de identificación requerida</v>
@@ -2476,7 +2476,7 @@
         <v>idcard2 Required</v>
       </c>
       <c r="C88" t="str">
-        <v>idcard2 Required</v>
+        <v>身份证背面照必需</v>
       </c>
       <c r="D88" t="str">
         <v>Etiqueta tarjeta de identificación requerida</v>
@@ -2518,7 +2518,7 @@
         <v>incumbency required</v>
       </c>
       <c r="C91" t="str">
-        <v>在职时间必须</v>
+        <v>在职时间必需</v>
       </c>
       <c r="D91" t="str">
         <v>Requerido tiempo de trabajo</v>
@@ -2616,7 +2616,7 @@
         <v>last name invalid</v>
       </c>
       <c r="C98" t="str">
-        <v>父亲姓氏无效</v>
+        <v>父亲姓氏格式不正确</v>
       </c>
       <c r="D98" t="str">
         <v>Apellido inválido</v>
@@ -2672,7 +2672,7 @@
         <v>liveness required</v>
       </c>
       <c r="C102" t="str">
-        <v>liveness required</v>
+        <v>活体信息必需</v>
       </c>
       <c r="D102" t="str">
         <v>liveness required</v>
@@ -2686,7 +2686,7 @@
         <v>loan purpose</v>
       </c>
       <c r="C103" t="str">
-        <v>loan purpose</v>
+        <v>贷款用途</v>
       </c>
       <c r="D103" t="str">
         <v>Propósito del préstamo</v>
@@ -2700,7 +2700,7 @@
         <v>loan purpose</v>
       </c>
       <c r="C104" t="str">
-        <v>loan purpose</v>
+        <v>请输入贷款用途</v>
       </c>
       <c r="D104" t="str">
         <v>Propósito del préstamo</v>
@@ -2714,7 +2714,7 @@
         <v>loan purpose required</v>
       </c>
       <c r="C105" t="str">
-        <v>loan purpose required</v>
+        <v>贷款用途必需</v>
       </c>
       <c r="D105" t="str">
         <v>Propósito del préstamo requerido</v>
@@ -2728,7 +2728,7 @@
         <v>maritalStatus</v>
       </c>
       <c r="C106" t="str">
-        <v>maritalStatus</v>
+        <v>婚姻状况</v>
       </c>
       <c r="D106" t="str">
         <v>Estado civil</v>
@@ -2742,7 +2742,7 @@
         <v>maritalStatus</v>
       </c>
       <c r="C107" t="str">
-        <v>maritalStatus</v>
+        <v>请选择婚姻状况</v>
       </c>
       <c r="D107" t="str">
         <v>Etiqueta Estado civil</v>
@@ -2756,7 +2756,7 @@
         <v>marital status required</v>
       </c>
       <c r="C108" t="str">
-        <v>marital status required</v>
+        <v>婚姻状况必需</v>
       </c>
       <c r="D108" t="str">
         <v>Estado civil requerido</v>
@@ -2770,7 +2770,7 @@
         <v>middle name invalid</v>
       </c>
       <c r="C109" t="str">
-        <v>middle name invalid</v>
+        <v>母亲姓氏格式不正确</v>
       </c>
       <c r="D109" t="str">
         <v>Segundo nombre inválido</v>
@@ -2784,7 +2784,7 @@
         <v>middle name</v>
       </c>
       <c r="C110" t="str">
-        <v>middle name</v>
+        <v>母亲姓氏</v>
       </c>
       <c r="D110" t="str">
         <v>Etiqueta segundo nombre</v>
@@ -2798,7 +2798,7 @@
         <v>middle name</v>
       </c>
       <c r="C111" t="str">
-        <v>middle name</v>
+        <v>请输入母亲姓氏</v>
       </c>
       <c r="D111" t="str">
         <v>Etiqueta segundo nombre requerido</v>
@@ -2812,7 +2812,7 @@
         <v>middle name required</v>
       </c>
       <c r="C112" t="str">
-        <v>middle name required</v>
+        <v>母亲姓氏必需</v>
       </c>
       <c r="D112" t="str">
         <v>Segundo nombre requerido</v>
@@ -2854,7 +2854,7 @@
         <v>monthincome required</v>
       </c>
       <c r="C115" t="str">
-        <v>收入水平必须</v>
+        <v>收入水平必需</v>
       </c>
       <c r="D115" t="str">
         <v>Etiqueta Ingresos mensuales requerido</v>
@@ -2868,7 +2868,7 @@
         <v>password invalid</v>
       </c>
       <c r="C116" t="str">
-        <v>密码格式为</v>
+        <v>密码格式不正确</v>
       </c>
       <c r="D116" t="str">
         <v>Contrase?a inválida</v>
@@ -2910,7 +2910,7 @@
         <v>password required</v>
       </c>
       <c r="C119" t="str">
-        <v>密码必须</v>
+        <v>密码必需</v>
       </c>
       <c r="D119" t="str">
         <v>Contrase?a requerida</v>
@@ -3008,7 +3008,7 @@
         <v>Phone Required</v>
       </c>
       <c r="C126" t="str">
-        <v>手机号必须</v>
+        <v>手机号必需</v>
       </c>
       <c r="D126" t="str">
         <v>Número de teléfono requerido</v>
@@ -3050,7 +3050,7 @@
         <v>salary date required</v>
       </c>
       <c r="C129" t="str">
-        <v>发薪日必须</v>
+        <v>发薪日必需</v>
       </c>
       <c r="D129" t="str">
         <v>Pago del sueldo requerido</v>
@@ -3064,7 +3064,7 @@
         <v>salary type</v>
       </c>
       <c r="C130" t="str">
-        <v>发薪类型</v>
+        <v>发薪方式</v>
       </c>
       <c r="D130" t="str">
         <v>Etiqueta Tipo de salario</v>
@@ -3078,7 +3078,7 @@
         <v>salary type</v>
       </c>
       <c r="C131" t="str">
-        <v>请选择发薪类型</v>
+        <v>请选择发薪方式</v>
       </c>
       <c r="D131" t="str">
         <v>Etiqueta Por favor seleccione Tipo de salario</v>
@@ -3092,7 +3092,7 @@
         <v>salary type required</v>
       </c>
       <c r="C132" t="str">
-        <v>发薪类型必须</v>
+        <v>发薪方式必须</v>
       </c>
       <c r="D132" t="str">
         <v>Tipo de salario requerido</v>
@@ -3106,7 +3106,7 @@
         <v>secondCardNo invalid</v>
       </c>
       <c r="C133" t="str">
-        <v>secondCardNo invalid</v>
+        <v>个人税号格式不正确</v>
       </c>
       <c r="D133" t="str">
         <v>Número de teléfono adicional inválido</v>
@@ -3120,7 +3120,7 @@
         <v>secondCardNo</v>
       </c>
       <c r="C134" t="str">
-        <v>secondCardNo</v>
+        <v>个人税号</v>
       </c>
       <c r="D134" t="str">
         <v>Etiqueta Segundo número telefónico</v>
@@ -3134,7 +3134,7 @@
         <v>secondCardNo</v>
       </c>
       <c r="C135" t="str">
-        <v>secondCardNo</v>
+        <v>请填写个人税号</v>
       </c>
       <c r="D135" t="str">
         <v>Etiqueta Segundo número telefónico</v>
@@ -3148,7 +3148,7 @@
         <v>second phone required</v>
       </c>
       <c r="C136" t="str">
-        <v>second phone required</v>
+        <v>个人税号必需</v>
       </c>
       <c r="D136" t="str">
         <v>Número de teléfono adicional requerido</v>
@@ -3176,7 +3176,7 @@
         <v>Validate Code Invalid</v>
       </c>
       <c r="C138" t="str">
-        <v>验证码无效</v>
+        <v>验证码格式无效</v>
       </c>
       <c r="D138" t="str">
         <v>Código de validación inválido</v>
@@ -3288,7 +3288,7 @@
         <v>whatsAPP required</v>
       </c>
       <c r="C146" t="str">
-        <v>whatsAPP required</v>
+        <v>whatsAPP账户必需</v>
       </c>
       <c r="D146" t="str">
         <v>WhatsApp requerido</v>
@@ -3303,7 +3303,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3344,7 +3344,7 @@
         <v>Fill up information within 5 mins</v>
       </c>
       <c r="C3" t="str">
-        <v>Fill up information within 5 mins</v>
+        <v>5分钟即可完成信息填写</v>
       </c>
       <c r="D3" t="str">
         <v>Fill up information within 5 mins</v>
@@ -3358,7 +3358,7 @@
         <v>Convenient operation</v>
       </c>
       <c r="C4" t="str">
-        <v>Convenient operation</v>
+        <v>操作简单</v>
       </c>
       <c r="D4" t="str">
         <v>Convenient operation</v>
@@ -3372,7 +3372,7 @@
         <v>Verification finished within 2 hours</v>
       </c>
       <c r="C5" t="str">
-        <v>Verification finished within 2 hours</v>
+        <v>2小时内完成信息认证</v>
       </c>
       <c r="D5" t="str">
         <v>Verification finished within 2 hours</v>
@@ -3386,7 +3386,7 @@
         <v>Fast Approval</v>
       </c>
       <c r="C6" t="str">
-        <v>Fast Approval</v>
+        <v>快速审批</v>
       </c>
       <c r="D6" t="str">
         <v>Fast Approval</v>
@@ -3400,7 +3400,7 @@
         <v>Get the disbursement</v>
       </c>
       <c r="C7" t="str">
-        <v>Get the disbursement</v>
+        <v>还款便利</v>
       </c>
       <c r="D7" t="str">
         <v>Get the disbursement</v>
@@ -3414,7 +3414,7 @@
         <v>Disbursement within 24 hours</v>
       </c>
       <c r="C8" t="str">
-        <v>Disbursement within 24 hours</v>
+        <v>支持24小时还款</v>
       </c>
       <c r="D8" t="str">
         <v>Disbursement within 24 hours</v>
@@ -3428,7 +3428,7 @@
         <v>Agree with Moneyya</v>
       </c>
       <c r="C9" t="str">
-        <v>Agree with Moneyya</v>
+        <v>同意Moneyya的服务条款</v>
       </c>
       <c r="D9" t="str">
         <v>de acuerdo con Moneyya</v>
@@ -3442,10 +3442,10 @@
         <v>Amount of repayment</v>
       </c>
       <c r="C10" t="str">
-        <v>Amount of repayment</v>
+        <v>还款金额数量</v>
       </c>
       <c r="D10" t="str">
-        <v>Amount of repayment</v>
+        <v>Cantidad de pago</v>
       </c>
     </row>
     <row r="11">
@@ -3470,7 +3470,7 @@
         <v>请阅读完</v>
       </c>
       <c r="C12" t="str">
-        <v>请阅读完</v>
+        <v>请阅读完当前协议</v>
       </c>
       <c r="D12" t="str">
         <v>Por favor lea hsta el final.</v>
@@ -3484,10 +3484,10 @@
         <v>If account information is incorrecctly filled,you will not be able to receive loans.</v>
       </c>
       <c r="C13" t="str">
-        <v>If account information is incorrecctly filled,you will not be able to receive loans.</v>
+        <v>如果您的个人账户信息不正确或不完整，您可能不能正常收到贷款</v>
       </c>
       <c r="D13" t="str">
-        <v>If account information is incorrecctly filled,you will not be able to receive loans.</v>
+        <v>No olvide: Si la información ingresada es incorrecta no recibirá préstamos</v>
       </c>
     </row>
     <row r="14">
@@ -3498,10 +3498,10 @@
         <v>Tips:ReceiptAs and repayments may be affected by bank working</v>
       </c>
       <c r="C14" t="str">
-        <v>Tips:ReceiptAs and repayments may be affected by bank working</v>
+        <v>温馨提示:ReceiptAs and repayments may be affected by bank working</v>
       </c>
       <c r="D14" t="str">
-        <v>Tips:ReceiptAs and repayments may be affected by bank working</v>
+        <v>No olvide que los cobros y reembolsos pueden verse afectados por las operaciones bancarias</v>
       </c>
     </row>
     <row r="15">
@@ -3512,7 +3512,7 @@
         <v>Bill information</v>
       </c>
       <c r="C15" t="str">
-        <v>Bill information</v>
+        <v>订单信息</v>
       </c>
       <c r="D15" t="str">
         <v>Información de factura</v>
@@ -3526,7 +3526,7 @@
         <v>camera is not allow permission</v>
       </c>
       <c r="C16" t="str">
-        <v>camera is not allow permission</v>
+        <v>手机没有拍照权限</v>
       </c>
       <c r="D16" t="str">
         <v>La cámara no está permitida</v>
@@ -3540,7 +3540,7 @@
         <v>camera unknown error</v>
       </c>
       <c r="C17" t="str">
-        <v>camera unknown error</v>
+        <v>摄像头位置错误</v>
       </c>
       <c r="D17" t="str">
         <v>Error desconocido de la cámara</v>
@@ -3554,7 +3554,7 @@
         <v>camera is unavailable</v>
       </c>
       <c r="C18" t="str">
-        <v>camera is unavailable</v>
+        <v>摄像头不支持拍照</v>
       </c>
       <c r="D18" t="str">
         <v>Cámara no disponible</v>
@@ -3624,7 +3624,7 @@
         <v>{{field}} is too long</v>
       </c>
       <c r="C23" t="str">
-        <v>{{field}} is too long</v>
+        <v>{{field}}输入太长了</v>
       </c>
       <c r="D23" t="str">
         <v>{{field}} El campo insertado es demasiado largo</v>
@@ -3638,7 +3638,7 @@
         <v>{{field}} is too short</v>
       </c>
       <c r="C24" t="str">
-        <v>{{field}} is too short</v>
+        <v>{{field}}输入太短了</v>
       </c>
       <c r="D24" t="str">
         <v>{{field}} El campo insertado es demasiado corto</v>
@@ -3652,7 +3652,7 @@
         <v>Please fill in bank account information of your own, or loan would fail</v>
       </c>
       <c r="C25" t="str">
-        <v>Please fill in bank account information of your own, or loan would fail</v>
+        <v>请完成填写您的的银行卡账户信息，否则您的申请可能失败</v>
       </c>
       <c r="D25" t="str">
         <v>Ingrese su propia información bancaria</v>
@@ -3666,10 +3666,10 @@
         <v>Filling Date</v>
       </c>
       <c r="C26" t="str">
-        <v>Filling Date</v>
+        <v>完成日期</v>
       </c>
       <c r="D26" t="str">
-        <v>Filling Date</v>
+        <v>Fecha de llenado</v>
       </c>
     </row>
     <row r="27">
@@ -3708,7 +3708,7 @@
         <v>Information Confirmed</v>
       </c>
       <c r="C29" t="str">
-        <v>Information Confirmed</v>
+        <v>请确认信息</v>
       </c>
       <c r="D29" t="str">
         <v>Información confirmada</v>
@@ -3750,7 +3750,7 @@
         <v>Loan information</v>
       </c>
       <c r="C32" t="str">
-        <v>Loan information</v>
+        <v>贷款信息</v>
       </c>
       <c r="D32" t="str">
         <v>Información del préstamo</v>
@@ -3792,7 +3792,7 @@
         <v>The maximum amount can be borrowed</v>
       </c>
       <c r="C35" t="str">
-        <v>The maximum amount can be borrowed</v>
+        <v>最大可贷金额</v>
       </c>
       <c r="D35" t="str">
         <v>La cantidad máxima que se puede pedir prestada</v>
@@ -3879,7 +3879,7 @@
         <v>订单号</v>
       </c>
       <c r="D41" t="str">
-        <v>Order Number</v>
+        <v>Número de orden</v>
       </c>
     </row>
     <row r="42">
@@ -3890,7 +3890,7 @@
         <v>Other Contact</v>
       </c>
       <c r="C42" t="str">
-        <v>Other Contact</v>
+        <v>其他联系人</v>
       </c>
       <c r="D42" t="str">
         <v>Otro contacto</v>
@@ -3904,7 +3904,7 @@
         <v>There is one unpaid bill and {day} days overdue</v>
       </c>
       <c r="C43" t="str">
-        <v>There is one unpaid bill and {day} days overdue</v>
+        <v>当前有一笔未还款订单将于{day}天后逾期</v>
       </c>
       <c r="D43" t="str">
         <v>Hay una factura sin pagar y con días de retraso</v>
@@ -3932,10 +3932,10 @@
         <v>Payment Date</v>
       </c>
       <c r="C45" t="str">
-        <v>Payment date</v>
+        <v>还款日期</v>
       </c>
       <c r="D45" t="str">
-        <v>Payment Date</v>
+        <v>Fecha de pago</v>
       </c>
     </row>
     <row r="46">
@@ -3946,7 +3946,7 @@
         <v>Tasa de Tramitacion</v>
       </c>
       <c r="C46" t="str">
-        <v>Tasa de Tramitacion</v>
+        <v>Tasa de Tramitacion(应还金额提示？看不懂，[不用翻译括号内内容])</v>
       </c>
       <c r="D46" t="str">
         <v>Tasa de tramitación</v>
@@ -3985,10 +3985,10 @@
         <v>permission-blocked</v>
       </c>
       <c r="B49" t="str">
-        <v>permission blocked</v>
+        <v>您禁止了{permission}(提示：您禁止了拍照权限[不用翻译括号内内容])</v>
       </c>
       <c r="C49" t="str">
-        <v>permission blocked</v>
+        <v>您禁止了{permission}(提示：您禁止了拍照权限[不用翻译括号内内容])</v>
       </c>
       <c r="D49" t="str">
         <v>Permiso bloqueado</v>
@@ -3999,10 +3999,10 @@
         <v>permission-unavailable</v>
       </c>
       <c r="B50" t="str">
-        <v>permission unavailable</v>
+        <v>您未授予{permission}(提示：您未授予拍照权限[不用翻译括号内内容])</v>
       </c>
       <c r="C50" t="str">
-        <v>permission unavailable</v>
+        <v>您未授予{permission}(提示：您未授予拍照权限[不用翻译括号内内容])</v>
       </c>
       <c r="D50" t="str">
         <v>Permiso no disponible</v>
@@ -4010,301 +4010,371 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>promptRepayHint</v>
+        <v>permission.camera</v>
       </c>
       <c r="B51" t="str">
-        <v>Maintaining a good repayment behavior will help you to increase your loan amount. 96% of users loan amount haveincreased subsequently.</v>
+        <v>拍照权限</v>
       </c>
       <c r="C51" t="str">
-        <v>Maintaining a good repayment behavior will help you to increase your loan amount. 96% of users loan amount haveincreased subsequently.</v>
+        <v>拍照权限</v>
       </c>
       <c r="D51" t="str">
-        <v>Mantener un buen comportamiento de pago lo ayudará a aumentar el monto de su préstamo. El 96% del monto del préstamo de los usuarios aumentó posteriormente.</v>
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>providehandleIDcardPrompt</v>
+        <v>permission.file</v>
       </c>
       <c r="B52" t="str">
-        <v>Must provide above mentioned images, otherwise application will be rejected.</v>
+        <v>存储权限</v>
       </c>
       <c r="C52" t="str">
-        <v>Must provide above mentioned images, otherwise application will be rejected.</v>
+        <v>存储权限</v>
       </c>
       <c r="D52" t="str">
-        <v>Debe proporcionar las imágenes mencionadas anteriormente; de ??lo contrario se rechazará la solicitud.</v>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>refreshSuccess</v>
+        <v>permission.contact</v>
       </c>
       <c r="B53" t="str">
-        <v>刷新成功</v>
+        <v>通讯录权限</v>
       </c>
       <c r="C53" t="str">
-        <v>刷新成功</v>
+        <v>通讯录权限</v>
       </c>
       <c r="D53" t="str">
-        <v>Actualización con éxito</v>
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>repayAmountHint</v>
+        <v>permission.location</v>
       </c>
       <c r="B54" t="str">
-        <v>Tasa de Tramitacion</v>
+        <v>定位权限</v>
       </c>
       <c r="C54" t="str">
-        <v>Tasa de Tramitacion</v>
+        <v>定位权限</v>
       </c>
       <c r="D54" t="str">
-        <v>Tasa de Tramitacion</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>repayment-amount</v>
+        <v>permission.phone</v>
       </c>
       <c r="B55" t="str">
-        <v>Repayment amount</v>
+        <v>手机状态权限</v>
       </c>
       <c r="C55" t="str">
-        <v>Repayment amount</v>
+        <v>手机状态权限</v>
       </c>
       <c r="D55" t="str">
-        <v>Repayment amount</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>repaymentDate</v>
+        <v>promptRepayHint</v>
       </c>
       <c r="B56" t="str">
-        <v>Repayment Date</v>
+        <v>Maintaining a good repayment behavior will help you to increase your loan amount. 96% of users loan amount haveincreased subsequently.</v>
       </c>
       <c r="C56" t="str">
-        <v>Raypayment Date</v>
+        <v>维持良好的还款习惯将增加您的可贷额度。96%以上用户的额度提升了！</v>
       </c>
       <c r="D56" t="str">
-        <v>Repayment Date</v>
+        <v>Mantener un buen comportamiento de pago lo ayudará a aumentar el monto de su préstamo. El 96% del monto del préstamo de los usuarios aumentó posteriormente.</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>resetpwd.label</v>
+        <v>providehandleIDcardPrompt</v>
       </c>
       <c r="B57" t="str">
-        <v>Reset Password</v>
+        <v>Must provide above mentioned images, otherwise application will be rejected.</v>
       </c>
       <c r="C57" t="str">
-        <v>重置密码</v>
+        <v>您必需提供以上影像信息，否则您的申请会被拒绝</v>
       </c>
       <c r="D57" t="str">
-        <v>Restablecer contrase?a</v>
+        <v>Debe proporcionar las imágenes mencionadas anteriormente; de ??lo contrario se rechazará la solicitud.</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>resetpwd.success</v>
+        <v>refreshSuccess</v>
       </c>
       <c r="B58" t="str">
-        <v>reset pwd success</v>
+        <v>刷新成功</v>
       </c>
       <c r="C58" t="str">
-        <v>reset pwd success</v>
+        <v>刷新成功</v>
       </c>
       <c r="D58" t="str">
-        <v>Restablecido con éxito</v>
+        <v>Actualización con éxito</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>restRepayAmount</v>
+        <v>repayAmountHint</v>
       </c>
       <c r="B59" t="str">
-        <v>剩余应付金额</v>
+        <v>Tasa de Tramitacion</v>
       </c>
       <c r="C59" t="str">
-        <v>剩余应付金额</v>
+        <v>Tasa de Tramitacion(还款金额提示？看不懂，[不用翻译括号内内容])</v>
       </c>
       <c r="D59" t="str">
-        <v>Importe restante a pagar</v>
+        <v>Tasa de tramitación</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>serviceFee</v>
+        <v>repayment-amount</v>
       </c>
       <c r="B60" t="str">
-        <v>Service Fee</v>
+        <v>Repayment amount</v>
       </c>
       <c r="C60" t="str">
-        <v>Service Fee</v>
+        <v>应还金额</v>
       </c>
       <c r="D60" t="str">
-        <v>Service Fee</v>
+        <v>Cantidad de reembolso</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>signinPrompt</v>
+        <v>repaymentDate</v>
       </c>
       <c r="B61" t="str">
-        <v>Don't have an account?</v>
+        <v>Repayment Date</v>
       </c>
       <c r="C61" t="str">
-        <v>没有账号吗?</v>
+        <v>应还日期</v>
       </c>
       <c r="D61" t="str">
-        <v>Tiene una cuenta?</v>
+        <v>Fecha de reembolso</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>stage</v>
+        <v>resetpwd.label</v>
       </c>
       <c r="B62" t="str">
-        <v>Stage</v>
+        <v>Reset Password</v>
       </c>
       <c r="C62" t="str">
-        <v>Stage</v>
+        <v>重置密码</v>
       </c>
       <c r="D62" t="str">
-        <v>Stage</v>
+        <v>Restablecer contrase?a</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>status</v>
+        <v>resetpwd.success</v>
       </c>
       <c r="B63" t="str">
-        <v>Status</v>
+        <v>reset pwd success</v>
       </c>
       <c r="C63" t="str">
-        <v>Status</v>
+        <v>重置密码</v>
       </c>
       <c r="D63" t="str">
-        <v>Status</v>
+        <v>Restablecido con éxito</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>take-photo-hint-1</v>
+        <v>restRepayAmount</v>
       </c>
       <c r="B64" t="str">
-        <v>El frente de tu ID</v>
+        <v>剩余应付金额</v>
       </c>
       <c r="C64" t="str">
-        <v>El frente de tu ID</v>
+        <v>剩余应付金额</v>
       </c>
       <c r="D64" t="str">
-        <v>El frente de tu ID</v>
+        <v>Importe restante a pagar</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>take-photo-hint-2</v>
+        <v>serviceFee</v>
       </c>
       <c r="B65" t="str">
-        <v>La parte trasera de tu ID</v>
+        <v>Service Fee</v>
       </c>
       <c r="C65" t="str">
-        <v>La parte trasera de tu ID</v>
+        <v>服务费</v>
       </c>
       <c r="D65" t="str">
-        <v>La parte trasera de tu ID</v>
+        <v>Tarifa por el servicio</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>take-photo-title</v>
+        <v>signinPrompt</v>
       </c>
       <c r="B66" t="str">
-        <v>Proporciona tu INE/IFE por favor</v>
+        <v>Don't have an account?</v>
       </c>
       <c r="C66" t="str">
-        <v>Proporciona tu INE/IFE por favor</v>
+        <v>没有账号吗?</v>
       </c>
       <c r="D66" t="str">
-        <v>Proporciona tu INE/IFE por favor</v>
+        <v>Tiene una cuenta?</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>termsofService</v>
+        <v>stage</v>
       </c>
       <c r="B67" t="str">
-        <v>Terms of Service</v>
+        <v>Stage</v>
       </c>
       <c r="C67" t="str">
-        <v>Terms of Service</v>
+        <v>阶段</v>
       </c>
       <c r="D67" t="str">
-        <v>Términos de servicio</v>
+        <v>Nivel</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>toBottom</v>
+        <v>status</v>
       </c>
       <c r="B68" t="str">
-        <v>到达底部了</v>
+        <v>Status</v>
       </c>
       <c r="C68" t="str">
-        <v>我是有底线的</v>
+        <v>状态</v>
       </c>
       <c r="D68" t="str">
-        <v>Ha llegado al final</v>
+        <v>estado</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>tostep7</v>
+        <v>take-photo-hint-1</v>
       </c>
       <c r="B69" t="str">
-        <v>Click here to modify bank card</v>
+        <v>El frente de tu ID</v>
       </c>
       <c r="C69" t="str">
-        <v>返回修改银行卡号</v>
+        <v>El frente de tu ID(意思是：身份证正面照拍照提示[不用翻译括号内内容])</v>
       </c>
       <c r="D69" t="str">
-        <v>haga clic aquí para modificar la tarjeta bancaria</v>
+        <v>El frente de tu identificación</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>upload-Failed</v>
+        <v>take-photo-hint-2</v>
       </c>
       <c r="B70" t="str">
-        <v>upload failed</v>
+        <v>La parte trasera de tu ID</v>
       </c>
       <c r="C70" t="str">
-        <v>upload failed</v>
+        <v>La parte trasera de tu ID(意思是：身份证背面照拍照提示[不用翻译括号内内容])</v>
       </c>
       <c r="D70" t="str">
-        <v>Carga fallida</v>
+        <v>La parte posterior de tu identificación</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
+        <v>take-photo-title</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Proporciona tu INE/IFE por favor</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Proporciona tu INE/IFE por favor(意思是：个人身份证照拍照标题[不用翻译括号内内容])</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Por favor proporciona tu INE/IFE</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>termsofService</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Terms of Service</v>
+      </c>
+      <c r="C72" t="str">
+        <v>服务条款</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Términos de servicio</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>toBottom</v>
+      </c>
+      <c r="B73" t="str">
+        <v>到达底部了</v>
+      </c>
+      <c r="C73" t="str">
+        <v>我是有底线的</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Ha llegado al final</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>tostep7</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Click here to modify bank card</v>
+      </c>
+      <c r="C74" t="str">
+        <v>返回修改银行卡号</v>
+      </c>
+      <c r="D74" t="str">
+        <v>haga clic aquí para modificar la tarjeta bancaria</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>upload-Failed</v>
+      </c>
+      <c r="B75" t="str">
+        <v>upload failed</v>
+      </c>
+      <c r="C75" t="str">
+        <v>影像信息上传失败</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Carga fallida</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
         <v>warnRepayPrompt</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B76" t="str">
         <v>我们建议您在此页面立即偿还贷款，以 免影响您的下次贷款申请。</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C76" t="str">
         <v>我们建议您在此页面立即偿还贷款，以 免影响您的下次贷款申请。</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D76" t="str">
         <v>le recomendamos que pague el préstamo inmediatamente en esta página para no afectar su próxima solicitud de préstamo.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/translate/语言包.xlsx
+++ b/translate/语言包.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,119 +1126,147 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>secondPaymentAmount</v>
+        <v>screenTitle.permission</v>
       </c>
       <c r="B54" t="str">
-        <v>Second repayment amount</v>
+        <v>Permission Authorized</v>
       </c>
       <c r="C54" t="str">
-        <v>第二期应还金额</v>
+        <v>授予权限</v>
       </c>
       <c r="D54" t="str">
-        <v>Monto de reembolso del segundo pago</v>
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>secondPaymentDate</v>
+        <v>secondPaymentAmount</v>
       </c>
       <c r="B55" t="str">
-        <v>Second repayment date</v>
+        <v>Second repayment amount</v>
       </c>
       <c r="C55" t="str">
-        <v>第二期应还日期</v>
+        <v>第二期应还金额</v>
       </c>
       <c r="D55" t="str">
-        <v>Monto de reembolso del segundo pago y fecha</v>
+        <v>Monto de reembolso del segundo pago</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>signin</v>
+        <v>secondPaymentDate</v>
       </c>
       <c r="B56" t="str">
-        <v>登录</v>
+        <v>Second repayment date</v>
       </c>
       <c r="C56" t="str">
-        <v>登录</v>
+        <v>第二期应还日期</v>
       </c>
       <c r="D56" t="str">
-        <v>Iniciar sesión</v>
+        <v>Monto de reembolso del segundo pago y fecha</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>signup</v>
+        <v>signin</v>
       </c>
       <c r="B57" t="str">
-        <v>注册</v>
+        <v>登录</v>
       </c>
       <c r="C57" t="str">
-        <v>注册</v>
+        <v>登录</v>
       </c>
       <c r="D57" t="str">
-        <v>Registrarse</v>
+        <v>Iniciar sesión</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>start</v>
+        <v>signup</v>
       </c>
       <c r="B58" t="str">
-        <v>start</v>
+        <v>注册</v>
       </c>
       <c r="C58" t="str">
-        <v>start</v>
+        <v>注册</v>
       </c>
       <c r="D58" t="str">
-        <v>Comienzo</v>
+        <v>Registrarse</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>submit</v>
+        <v>start</v>
       </c>
       <c r="B59" t="str">
-        <v>提交</v>
+        <v>start</v>
       </c>
       <c r="C59" t="str">
-        <v>提交</v>
+        <v>start</v>
       </c>
       <c r="D59" t="str">
-        <v>Enviar</v>
+        <v>Comienzo</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>transferAmount</v>
+        <v>submit</v>
       </c>
       <c r="B60" t="str">
-        <v>Transfer amount</v>
+        <v>提交</v>
       </c>
       <c r="C60" t="str">
-        <v>到手金额</v>
+        <v>提交</v>
       </c>
       <c r="D60" t="str">
-        <v>Cantidad en mano</v>
+        <v>Enviar</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>transferAmount</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Transfer amount</v>
+      </c>
+      <c r="C61" t="str">
+        <v>到手金额</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Cantidad en mano</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
         <v>validation-code-login</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B62" t="str">
         <v>验证码登录</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C62" t="str">
         <v>验证码登录</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D62" t="str">
         <v>Inicio de sesión con código de verificación</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>allow</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Allow</v>
+      </c>
+      <c r="C63" t="str">
+        <v>同意</v>
+      </c>
+      <c r="D63" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D63"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2459,7 +2487,7 @@
         <v>idcard1.required</v>
       </c>
       <c r="B87" t="str">
-        <v>idcard1 required</v>
+        <v>idcard front required</v>
       </c>
       <c r="C87" t="str">
         <v>身份证正面照必需</v>
@@ -2473,7 +2501,7 @@
         <v>idcard2.required</v>
       </c>
       <c r="B88" t="str">
-        <v>idcard2 Required</v>
+        <v>idcard back required</v>
       </c>
       <c r="C88" t="str">
         <v>身份证背面照必需</v>
@@ -3303,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4372,9 +4400,205 @@
         <v>le recomendamos que pague el préstamo inmediatamente en esta página para no afectar su próxima solicitud de préstamo.</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>verify-your-phone-number</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Verify Your Phone Number</v>
+      </c>
+      <c r="C77" t="str">
+        <v>验证你的手机号</v>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>send-verify-code-prompt</v>
+      </c>
+      <c r="B78" t="str">
+        <v>please type the verfication code sent to:</v>
+      </c>
+      <c r="C78" t="str">
+        <v>请输入接收到的手机验证码:</v>
+      </c>
+      <c r="D78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>unreceived-phone-hint</v>
+      </c>
+      <c r="B79" t="str">
+        <v>can't receive the verification code? Your can also check your Mobile Phone signal or try the following ways!</v>
+      </c>
+      <c r="C79" t="str">
+        <v>没有收到验证码？ 请检查您的手机信号或者使用其他的方式！</v>
+      </c>
+      <c r="D79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>receive-code-by-call</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Receive code by call</v>
+      </c>
+      <c r="C80" t="str">
+        <v>获取语音验证码</v>
+      </c>
+      <c r="D80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>re-acquire-verfication-code</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Re-acquire verfication code</v>
+      </c>
+      <c r="C81" t="str">
+        <v>重新获取验证码</v>
+      </c>
+      <c r="D81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>permission.location.hint</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Please allow us for accessing your Location, your privacy security will be under strict protection</v>
+      </c>
+      <c r="C82" t="str">
+        <v>请同意MoneayYa访问定位权限，您的隐私安全将处于严格保护之下</v>
+      </c>
+      <c r="D82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>permission.camera.hint</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Please allow us for accessing your Camera, your privacy security will be under strict protection</v>
+      </c>
+      <c r="C83" t="str">
+        <v>请同意MoneayYa访问拍照权限，您的隐私安全将处于严格保护之下</v>
+      </c>
+      <c r="D83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>permission.phone.hint</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Please allow us for accessing your Device, your privacy security will be under strict protection</v>
+      </c>
+      <c r="C84" t="str">
+        <v>请同意MoneayYa访问手机状态权限，您的隐私安全将处于严格保护之下</v>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>permission.contacts.hint</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Please allow us for accessing your contacts, your privacy security will be under strict protection</v>
+      </c>
+      <c r="C85" t="str">
+        <v>请同意MoneayYa访问联系人权限，您的隐私安全将处于严格保护之下</v>
+      </c>
+      <c r="D85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>permission.storage.hint</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Please allow us for accessing your storage, your privacy security will be under strict protection</v>
+      </c>
+      <c r="C86" t="str">
+        <v>请同意MoneayYa访问存储权限，您的隐私安全将处于严格保护之下</v>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>are-you-sure-want-to-exit</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Are you sure want to exit?</v>
+      </c>
+      <c r="C87" t="str">
+        <v>您确定要退出APP吗？</v>
+      </c>
+      <c r="D87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>notion</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Notion</v>
+      </c>
+      <c r="C88" t="str">
+        <v>提示</v>
+      </c>
+      <c r="D88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>exist-same-relation-phone</v>
+      </c>
+      <c r="B89" t="str">
+        <v>exist same relation phone</v>
+      </c>
+      <c r="C89" t="str">
+        <v>存在相同的联系人电话</v>
+      </c>
+      <c r="D89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>loadFailure</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Load Failed</v>
+      </c>
+      <c r="C90" t="str">
+        <v>加载失败</v>
+      </c>
+      <c r="D90" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D76"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D90"/>
   </ignoredErrors>
 </worksheet>
 </file>